--- a/GAMEPORTALCMS/EBL_PLC.xlsx
+++ b/GAMEPORTALCMS/EBL_PLC.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Data Class</t>
   </si>
@@ -23,25 +23,154 @@
     <t>Status</t>
   </si>
   <si>
+    <t>DW STORE DATETIME</t>
+  </si>
+  <si>
     <t>AOF</t>
   </si>
   <si>
     <t>Testing</t>
   </si>
   <si>
+    <t>0121020041905</t>
+  </si>
+  <si>
+    <t>INDEXED</t>
+  </si>
+  <si>
+    <t>0111070067082</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Workflow Escalation</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>41</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>38</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>26</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>PERICOM</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -87,7 +216,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -103,76 +232,713 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="0">
+        <v>45364.193460648145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="0">
+        <v>45354.46350694444</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>4</v>
+      <c r="D4" s="0">
+        <v>45354.458333333336</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="0">
+        <v>45354.45177083334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>4</v>
+      <c r="D6" s="0">
+        <v>45354.45177083334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D7" s="0">
+        <v>45354.45177083334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="0">
+        <v>45354.45177083334</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="0">
+        <v>45354.45177083334</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="0">
+        <v>45354.45175925926</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="0">
+        <v>45354.45175925926</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="0">
+        <v>45354.45175925926</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>4</v>
+      <c r="C13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0">
+        <v>45327.40520833333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0">
+        <v>45327.4041087963</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="0">
+        <v>45327.40314814815</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="0">
+        <v>45327.40222222222</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="0">
+        <v>45327.397685185184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0">
+        <v>45327.39378472222</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0">
+        <v>45327.38899305555</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="0">
+        <v>45327.38594907407</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="0">
+        <v>45327.381273148145</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="0">
+        <v>45327.37912037037</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="0">
+        <v>45327.376388888886</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="0">
+        <v>45327.372708333336</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="0">
+        <v>45327.36696759259</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="0">
+        <v>45327.36417824074</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="0">
+        <v>45327.36172453704</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="0">
+        <v>45327.36001157408</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="0">
+        <v>45327.358668981484</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="0">
+        <v>45327.357083333336</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="0">
+        <v>45327.355532407404</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="0">
+        <v>45327.35357638889</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="0">
+        <v>45327.35188657408</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="0">
+        <v>45327.35005787037</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="0">
+        <v>45327.344722222224</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="0">
+        <v>45327.3377662037</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="0">
+        <v>45327.33592592592</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="0">
+        <v>45327.32996527778</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="0">
+        <v>45327.24815972222</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="0">
+        <v>45327.24291666667</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="0">
+        <v>45327.24114583333</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="0">
+        <v>45327.23894675926</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="0">
+        <v>45327.236863425926</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="0">
+        <v>45327.23349537037</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="0">
+        <v>45327.2280787037</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="0">
+        <v>45327.22497685185</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="0">
+        <v>45327.220185185186</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="0">
+        <v>45327.21549768518</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="0">
+        <v>45327.2046875</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="0">
+        <v>45327.18765046296</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="0">
+        <v>45327.1847337963</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="0">
+        <v>45327.17304398148</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="0">
+        <v>45327.166608796295</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="0">
+        <v>45327.15100694444</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="0">
+        <v>45327.12614583333</v>
       </c>
     </row>
   </sheetData>
